--- a/rcs/Cards.xlsx
+++ b/rcs/Cards.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="230">
   <si>
     <t xml:space="preserve">Text</t>
   </si>
@@ -41,6 +41,306 @@
     <t xml:space="preserve">Item1</t>
   </si>
   <si>
+    <t xml:space="preserve">Draw 100 gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jackpot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coin1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draw 200 gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coin2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draw 500 gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coin5.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draw 1000 gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coin1k.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evolve one of your pupiles to God Tio Tuno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evolution is a bitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evolution.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add or withdraw (opponent) 2 Tunos in the stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You’ve got a friend in me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">withdraw.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steal 2 Tunos from your opponent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Theft Auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gta.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trade 2 Tunos with your opponent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grande Trade Auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trade.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steal 200 from one of your opponent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look, you droped it !!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steal_coin.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel on event (not applicable at festivals)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh nein, you didn’t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cancel_fest.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel an Item effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t even think about it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nope.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel decision card </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My bike !!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cancel_dec.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prestige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Text1</t>
   </si>
   <si>
@@ -50,10 +350,16 @@
     <t xml:space="preserve">Image1</t>
   </si>
   <si>
+    <t xml:space="preserve">MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prestige1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pallete1</t>
   </si>
   <si>
-    <t xml:space="preserve">Item2</t>
+    <t xml:space="preserve">Event2</t>
   </si>
   <si>
     <t xml:space="preserve">Text2</t>
@@ -65,40 +371,19 @@
     <t xml:space="preserve">Image2</t>
   </si>
   <si>
+    <t xml:space="preserve">Prestige2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pallete2</t>
   </si>
   <si>
-    <t xml:space="preserve">Requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prestige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requirements1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prestige1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requirements2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prestige2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Type</t>
   </si>
   <si>
     <t xml:space="preserve">Tuno1</t>
   </si>
   <si>
-    <t xml:space="preserve">Juntos damos espetaculo.\nUsa os itens desta carta para tentar ganhar um evento sem te preocupares com pontos de espetaculo.</t>
+    <t xml:space="preserve">Juntos damos espetaculo.\nUsa os itens desta carta para tentar ganhar\num evento sem te preocupares com pontos\nde espetaculo.</t>
   </si>
   <si>
     <t xml:space="preserve">Cat and Skeleton</t>
@@ -107,7 +392,7 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">RYY</t>
+    <t xml:space="preserve">RMM</t>
   </si>
   <si>
     <t xml:space="preserve">Tuno2</t>
@@ -134,70 +419,277 @@
     <t xml:space="preserve">Pallete3</t>
   </si>
   <si>
+    <t xml:space="preserve">Tuno4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image4</t>
+  </si>
+  <si>
     <t xml:space="preserve">PPV</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallete4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuno5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image5</t>
+  </si>
+  <si>
     <t xml:space="preserve">MMVE</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallete5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuno6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image6</t>
+  </si>
+  <si>
     <t xml:space="preserve">E</t>
   </si>
   <si>
     <t xml:space="preserve">EE</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallete6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuno7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image7</t>
+  </si>
+  <si>
     <t xml:space="preserve">R</t>
   </si>
   <si>
     <t xml:space="preserve">RR</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallete7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuno8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Este tuno não vai buscar a pilha de cubinhos.\n Ele infiltra-se e vai rouber cubinhos ao(s) outros(s) jogador(es).</t>
   </si>
   <si>
     <t xml:space="preserve">Tuno ladrao</t>
   </si>
   <si>
-    <t xml:space="preserve">MM</t>
+    <t xml:space="preserve">Image8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallete8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuno9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image9</t>
   </si>
   <si>
     <t xml:space="preserve">EEE</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallete9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuno10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image10</t>
+  </si>
+  <si>
     <t xml:space="preserve">MMV</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallete10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuno11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ele não toca bem mas e bom moço.\nSe na mesa tiver algum tuno de melodia ou espetaculo, podes trazer tambem esse tuno como amigo.</t>
   </si>
   <si>
+    <t xml:space="preserve">Image11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallete11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuno12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ele canta e toca mas esquece-se facilmente de como o fazer.\nApenas podes jogar com os cubos dele no proximo turno...precisa de se preparar</t>
   </si>
   <si>
+    <t xml:space="preserve">Image12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallete12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuno13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallete13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuno14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image14</t>
+  </si>
+  <si>
     <t xml:space="preserve">PVE</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallete14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuno15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image15</t>
+  </si>
+  <si>
     <t xml:space="preserve">V</t>
   </si>
   <si>
     <t xml:space="preserve">VVV</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallete15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuno16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image16</t>
+  </si>
+  <si>
     <t xml:space="preserve">RRR</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallete16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuno17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image17</t>
+  </si>
+  <si>
     <t xml:space="preserve">RRE</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallete17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuno18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image18</t>
+  </si>
+  <si>
     <t xml:space="preserve">RP</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallete18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuno19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image19</t>
+  </si>
+  <si>
     <t xml:space="preserve">EEV</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallete19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuno20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallete20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuno21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text15</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ele não toca bem mas e bom moço.\nSe na mesa tiver algum tuno de percursao ou ritmo, podes trazer tambem esse tuno como amigo.</t>
   </si>
   <si>
+    <t xml:space="preserve">Image21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallete21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuno22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image22</t>
+  </si>
+  <si>
     <t xml:space="preserve">VVVV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallete22</t>
   </si>
   <si>
     <t xml:space="preserve">Break1</t>
@@ -231,11 +723,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -251,6 +744,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -295,8 +793,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -317,21 +819,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F68" activeCellId="0" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.984693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.4489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -361,25 +863,1096 @@
       <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>8</v>
+      <c r="E2" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="B6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="B7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -401,14 +1974,14 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -422,10 +1995,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>3</v>
@@ -433,48 +2006,48 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -496,16 +2069,17 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.515306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -519,10 +2093,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>3</v>
@@ -530,238 +2104,502 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>133</v>
+      </c>
       <c r="E5" s="0" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>36</v>
+        <v>134</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>138</v>
+      </c>
       <c r="E6" s="0" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>37</v>
+        <v>139</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>143</v>
+      </c>
       <c r="E7" s="0" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>39</v>
+        <v>145</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>149</v>
+      </c>
       <c r="E8" s="0" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>41</v>
+        <v>151</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>153</v>
+      </c>
       <c r="B9" s="0" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>43</v>
+        <v>155</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>156</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>44</v>
+        <v>108</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>159</v>
+      </c>
       <c r="E10" s="0" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>45</v>
+        <v>160</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>163</v>
+      </c>
       <c r="E11" s="0" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>46</v>
+        <v>164</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>166</v>
+      </c>
       <c r="B12" s="0" t="s">
-        <v>47</v>
+        <v>167</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>168</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>40</v>
+        <v>150</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>170</v>
+      </c>
       <c r="B13" s="0" t="s">
-        <v>48</v>
+        <v>171</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>172</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>36</v>
+        <v>134</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>175</v>
+      </c>
       <c r="E14" s="0" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>31</v>
+        <v>126</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>179</v>
+      </c>
       <c r="E15" s="0" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>49</v>
+        <v>180</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>184</v>
+      </c>
       <c r="E16" s="0" t="s">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>51</v>
+        <v>186</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>190</v>
+      </c>
       <c r="E17" s="0" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>52</v>
+        <v>191</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>195</v>
+      </c>
       <c r="E18" s="0" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>53</v>
+        <v>196</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>200</v>
+      </c>
       <c r="E19" s="0" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>54</v>
+        <v>201</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>205</v>
+      </c>
       <c r="E20" s="0" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>55</v>
+        <v>206</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>210</v>
+      </c>
       <c r="E21" s="0" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>39</v>
+        <v>145</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>213</v>
+      </c>
       <c r="C22" s="0" t="s">
-        <v>56</v>
+        <v>214</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>215</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>38</v>
+        <v>144</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>219</v>
+      </c>
       <c r="E23" s="0" t="s">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>57</v>
+        <v>220</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -788,7 +2626,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,36 +2645,36 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -863,43 +2701,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>61</v>
+        <v>225</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>62</v>
+        <v>226</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/rcs/Cards.xlsx
+++ b/rcs/Cards.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,8 +13,9 @@
     <sheet name="tunos" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="breaks" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="pallete" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="notas" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="239">
   <si>
     <t xml:space="preserve">Text</t>
   </si>
@@ -395,6 +396,9 @@
     <t xml:space="preserve">RMM</t>
   </si>
   <si>
+    <t xml:space="preserve">yellow</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tuno2</t>
   </si>
   <si>
@@ -407,6 +411,9 @@
     <t xml:space="preserve">PP</t>
   </si>
   <si>
+    <t xml:space="preserve">purple</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tuno3</t>
   </si>
   <si>
@@ -416,9 +423,6 @@
     <t xml:space="preserve">Image3</t>
   </si>
   <si>
-    <t xml:space="preserve">Pallete3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tuno4</t>
   </si>
   <si>
@@ -431,9 +435,6 @@
     <t xml:space="preserve">PPV</t>
   </si>
   <si>
-    <t xml:space="preserve">Pallete4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tuno5</t>
   </si>
   <si>
@@ -446,9 +447,6 @@
     <t xml:space="preserve">MMVE</t>
   </si>
   <si>
-    <t xml:space="preserve">Pallete5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tuno6</t>
   </si>
   <si>
@@ -464,7 +462,7 @@
     <t xml:space="preserve">EE</t>
   </si>
   <si>
-    <t xml:space="preserve">Pallete6</t>
+    <t xml:space="preserve">green</t>
   </si>
   <si>
     <t xml:space="preserve">Tuno7</t>
@@ -482,7 +480,7 @@
     <t xml:space="preserve">RR</t>
   </si>
   <si>
-    <t xml:space="preserve">Pallete7</t>
+    <t xml:space="preserve">red</t>
   </si>
   <si>
     <t xml:space="preserve">Tuno8</t>
@@ -497,9 +495,6 @@
     <t xml:space="preserve">Image8</t>
   </si>
   <si>
-    <t xml:space="preserve">Pallete8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tuno9</t>
   </si>
   <si>
@@ -509,9 +504,6 @@
     <t xml:space="preserve">EEE</t>
   </si>
   <si>
-    <t xml:space="preserve">Pallete9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tuno10</t>
   </si>
   <si>
@@ -521,9 +513,6 @@
     <t xml:space="preserve">MMV</t>
   </si>
   <si>
-    <t xml:space="preserve">Pallete10</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tuno11</t>
   </si>
   <si>
@@ -533,9 +522,6 @@
     <t xml:space="preserve">Image11</t>
   </si>
   <si>
-    <t xml:space="preserve">Pallete11</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tuno12</t>
   </si>
   <si>
@@ -545,18 +531,12 @@
     <t xml:space="preserve">Image12</t>
   </si>
   <si>
-    <t xml:space="preserve">Pallete12</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tuno13</t>
   </si>
   <si>
     <t xml:space="preserve">Image13</t>
   </si>
   <si>
-    <t xml:space="preserve">Pallete13</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tuno14</t>
   </si>
   <si>
@@ -569,9 +549,6 @@
     <t xml:space="preserve">PVE</t>
   </si>
   <si>
-    <t xml:space="preserve">Pallete14</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tuno15</t>
   </si>
   <si>
@@ -587,7 +564,7 @@
     <t xml:space="preserve">VVV</t>
   </si>
   <si>
-    <t xml:space="preserve">Pallete15</t>
+    <t xml:space="preserve">blue</t>
   </si>
   <si>
     <t xml:space="preserve">Tuno16</t>
@@ -602,9 +579,6 @@
     <t xml:space="preserve">RRR</t>
   </si>
   <si>
-    <t xml:space="preserve">Pallete16</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tuno17</t>
   </si>
   <si>
@@ -617,9 +591,6 @@
     <t xml:space="preserve">RRE</t>
   </si>
   <si>
-    <t xml:space="preserve">Pallete17</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tuno18</t>
   </si>
   <si>
@@ -632,9 +603,6 @@
     <t xml:space="preserve">RP</t>
   </si>
   <si>
-    <t xml:space="preserve">Pallete18</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tuno19</t>
   </si>
   <si>
@@ -647,9 +615,6 @@
     <t xml:space="preserve">EEV</t>
   </si>
   <si>
-    <t xml:space="preserve">Pallete19</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tuno20</t>
   </si>
   <si>
@@ -659,9 +624,6 @@
     <t xml:space="preserve">Image20</t>
   </si>
   <si>
-    <t xml:space="preserve">Pallete20</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tuno21</t>
   </si>
   <si>
@@ -674,9 +636,6 @@
     <t xml:space="preserve">Image21</t>
   </si>
   <si>
-    <t xml:space="preserve">Pallete21</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tuno22</t>
   </si>
   <si>
@@ -689,16 +648,13 @@
     <t xml:space="preserve">VVVV</t>
   </si>
   <si>
-    <t xml:space="preserve">Pallete22</t>
-  </si>
-  <si>
     <t xml:space="preserve">Break1</t>
   </si>
   <si>
     <t xml:space="preserve">Break2</t>
   </si>
   <si>
-    <t xml:space="preserve">TextColor</t>
+    <t xml:space="preserve">name</t>
   </si>
   <si>
     <t xml:space="preserve">TextBackground</t>
@@ -710,10 +666,82 @@
     <t xml:space="preserve">BorderColor</t>
   </si>
   <si>
-    <t xml:space="preserve">BackgroundLightColor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackgroundDarkColor</t>
+    <t xml:space="preserve">BackgroundColor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(65,106,155)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(46,75,111)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(10,15,23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(143,189,246)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 a contar de baixo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 a contar de baixo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ultimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 a contar de cima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(48,32,50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(34,23,35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7,5,7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(123,105,125)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(122,43,42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(87,31,30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(18,7,6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/(208,118,117)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(62,89,48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(45,64,34)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(9,13,7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/(140,170,123)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/(159,148,86)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(114,106,61)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(23,22,13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/(250,238,167)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cor das palletes dos tunos</t>
   </si>
 </sst>
 </file>
@@ -746,9 +774,11 @@
       <family val="0"/>
     </font>
     <font>
+      <u val="single"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -793,8 +823,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -804,12 +838,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -821,22 +855,21 @@
   </sheetPr>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F68" activeCellId="0" sqref="F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.984693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.4489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
@@ -850,7 +883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -867,7 +900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
@@ -884,7 +917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
@@ -901,7 +934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>10</v>
       </c>
@@ -918,7 +951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
@@ -935,7 +968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
@@ -952,7 +985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>13</v>
       </c>
@@ -969,7 +1002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>14</v>
       </c>
@@ -986,7 +1019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>15</v>
       </c>
@@ -1003,7 +1036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>16</v>
       </c>
@@ -1020,7 +1053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>17</v>
       </c>
@@ -1037,7 +1070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>20</v>
       </c>
@@ -1054,7 +1087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>21</v>
       </c>
@@ -1071,7 +1104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>22</v>
       </c>
@@ -1088,7 +1121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>23</v>
       </c>
@@ -1105,7 +1138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>24</v>
       </c>
@@ -1122,7 +1155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>27</v>
       </c>
@@ -1139,7 +1172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>28</v>
       </c>
@@ -1156,7 +1189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>29</v>
       </c>
@@ -1173,7 +1206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>30</v>
       </c>
@@ -1190,7 +1223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>33</v>
       </c>
@@ -1207,7 +1240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>37</v>
       </c>
@@ -1224,7 +1257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>38</v>
       </c>
@@ -1241,7 +1274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>39</v>
       </c>
@@ -1258,7 +1291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>40</v>
       </c>
@@ -1275,7 +1308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>41</v>
       </c>
@@ -1292,7 +1325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>42</v>
       </c>
@@ -1309,7 +1342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>43</v>
       </c>
@@ -1326,7 +1359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>44</v>
       </c>
@@ -1343,7 +1376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>45</v>
       </c>
@@ -1360,7 +1393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>46</v>
       </c>
@@ -1377,7 +1410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>50</v>
       </c>
@@ -1394,7 +1427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>51</v>
       </c>
@@ -1411,7 +1444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>52</v>
       </c>
@@ -1428,7 +1461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>53</v>
       </c>
@@ -1445,7 +1478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>54</v>
       </c>
@@ -1462,7 +1495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>55</v>
       </c>
@@ -1479,7 +1512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>56</v>
       </c>
@@ -1496,7 +1529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>60</v>
       </c>
@@ -1513,7 +1546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>61</v>
       </c>
@@ -1530,7 +1563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>62</v>
       </c>
@@ -1547,7 +1580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>66</v>
       </c>
@@ -1564,7 +1597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>67</v>
       </c>
@@ -1581,7 +1614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>68</v>
       </c>
@@ -1598,7 +1631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>69</v>
       </c>
@@ -1615,7 +1648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>73</v>
       </c>
@@ -1632,7 +1665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>74</v>
       </c>
@@ -1649,7 +1682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>75</v>
       </c>
@@ -1666,7 +1699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>76</v>
       </c>
@@ -1683,7 +1716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>77</v>
       </c>
@@ -1700,7 +1733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>78</v>
       </c>
@@ -1717,7 +1750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>79</v>
       </c>
@@ -1734,7 +1767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>80</v>
       </c>
@@ -1751,7 +1784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>81</v>
       </c>
@@ -1768,7 +1801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>82</v>
       </c>
@@ -1785,7 +1818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>86</v>
       </c>
@@ -1802,7 +1835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>87</v>
       </c>
@@ -1819,7 +1852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>88</v>
       </c>
@@ -1836,7 +1869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>92</v>
       </c>
@@ -1853,7 +1886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>93</v>
       </c>
@@ -1870,7 +1903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>94</v>
       </c>
@@ -1887,7 +1920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>95</v>
       </c>
@@ -1904,7 +1937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>96</v>
       </c>
@@ -1921,7 +1954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>100</v>
       </c>
@@ -1938,7 +1971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>101</v>
       </c>
@@ -1958,7 +1991,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1973,18 +2006,16 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +2035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>104</v>
       </c>
@@ -2027,7 +2058,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>111</v>
       </c>
@@ -2053,7 +2084,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2068,21 +2099,18 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.15"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2122,76 +2150,76 @@
         <v>122</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>112</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>114</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>128</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2202,7 +2230,7 @@
         <v>137</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>138</v>
@@ -2214,67 +2242,67 @@
         <v>139</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>145</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="0" t="s">
+      <c r="E8" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>151</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>155</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>156</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>121</v>
@@ -2283,329 +2311,329 @@
         <v>108</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>160</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>121</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>207</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E21" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>145</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2620,16 +2648,13 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2643,9 +2668,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>105</v>
@@ -2660,9 +2685,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>112</v>
@@ -2680,7 +2705,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2693,57 +2718,227 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/rcs/Cards.xlsx
+++ b/rcs/Cards.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="273">
   <si>
     <t xml:space="preserve">Text</t>
   </si>
@@ -695,7 +695,136 @@
     <t xml:space="preserve">Break1</t>
   </si>
   <si>
+    <t xml:space="preserve">O vencedor desta batalha e o\nque tem mais tunos de melodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melodia Absoluta</t>
+  </si>
+  <si>
     <t xml:space="preserve">Break2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O vencedor desta batalha e o\nque tem mais tunos de ritmo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantem o ritmo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O vencedor desta batalha e o\nque tem mais tunos de percursao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es uma bomba nesse bombo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toca nesse pandeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O vencedor desta batalha e o\nque tem mais tunos de espetaculo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roda esse estandarte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faz essa carpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O vencedor desta batalha e o\nque tem mais tunos de voz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La la land</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canta como um passarinho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O jogador mais baixo perde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es um banco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O mais alto perde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es um escadote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perde quem tem mais pretigio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tivesses menos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O jogador mais novo ganha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby boy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coitadinho e pequenino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O jogador mais velho ganha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grande homem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es o mais velho da tua aldeia</t>
   </si>
   <si>
     <t xml:space="preserve">TextColor</t>
@@ -793,8 +922,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -828,12 +961,12 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.984693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.4489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,14 +2107,14 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2068,18 +2201,18 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2618,15 +2751,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.7959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.984693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2648,33 +2784,339 @@
         <v>222</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>110</v>
+      <c r="E2" s="0" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>113</v>
+      <c r="C3" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>116</v>
+      <c r="E3" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2701,33 +3143,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
